--- a/xlsxmaps/level_0028.xlsx
+++ b/xlsxmaps/level_0028.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78A6DD-9FF8-4DE2-A758-DF14ADF5E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6785C8-7709-4811-ACEB-2296D1DCDC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3078,9 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED1227-7749-4A5B-867C-368FE4E864C0}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
@@ -3117,7 +3115,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -3132,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -3143,7 +3141,7 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -3158,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -3224,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -3250,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -3338,7 +3336,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3402,7 +3400,7 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -3414,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -3428,7 +3426,7 @@
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -3440,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -3509,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3597,7 +3595,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3690,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -3699,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -3856,7 +3854,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3975,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D5" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
